--- a/PedigreeNode.xlsx
+++ b/PedigreeNode.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="307">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}fhs-1:Can have age[x] or born[x], but not both {age.empty() or born.empty()}fhs-2:Can only have estimatedAge if age[x] is present {age.exists() or estimatedAge.empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -206,6 +206,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>FamilyMemberHistory.implicitRules</t>
   </si>
   <si>
@@ -328,6 +332,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -348,10 +356,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>player[classCode&lt;LIV, determinerCode=INSTANCE].scopesRole</t>
   </si>
   <si>
@@ -446,7 +450,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -465,7 +469,7 @@
     <t>Business identifiers assigned to this family member history by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
   </si>
   <si>
     <t>Allows identification of the family member history as it is known by various participating systems and in a way that remains consistent across servers.</t>
@@ -532,7 +536,7 @@
     <t>A code that identifies the status of the family history record.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/history-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/history-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -623,10 +627,6 @@
     <t>FamilyMemberHistory.name</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>The family member described</t>
   </si>
   <si>
@@ -684,7 +684,7 @@
     <t>Codes describing the sex assigned at birth as documented on the birth registration.</t>
   </si>
   <si>
-    <t>http://build.fhir.org/valueset-administrative-gender.html</t>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
   </si>
   <si>
     <t>FamilyMemberHistory.born[x]</t>
@@ -856,10 +856,6 @@
   </si>
   <si>
     <t>The significant Conditions (or condition) that the family member had. This is a repeating section to allow a system to represent more than one condition per resource, though there is nothing stopping multiple resources - one per condition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code=ActCode#ASSERTION, value&lt;Diagnosis]</t>
@@ -1161,7 +1157,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="115.29296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.49609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
@@ -1611,7 +1607,7 @@
         <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>40</v>
@@ -1628,7 +1624,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1651,16 +1647,16 @@
         <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1710,7 +1706,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1722,7 +1718,7 @@
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
@@ -1739,7 +1735,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1762,16 +1758,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1797,13 +1793,13 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
@@ -1821,7 +1817,7 @@
         <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
@@ -1833,7 +1829,7 @@
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
@@ -1850,11 +1846,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1873,16 +1869,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1932,7 +1928,7 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1944,7 +1940,7 @@
         <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>40</v>
@@ -1953,7 +1949,7 @@
         <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>40</v>
@@ -1961,11 +1957,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1984,16 +1980,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2043,7 +2039,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2064,7 +2060,7 @@
         <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>40</v>
@@ -2072,7 +2068,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2095,13 +2091,13 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2140,17 +2136,17 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2162,7 +2158,7 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
@@ -2179,10 +2175,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>40</v>
@@ -2204,16 +2200,16 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2263,7 +2259,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2272,10 +2268,10 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
@@ -2284,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>40</v>
@@ -2292,10 +2288,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>40</v>
@@ -2317,16 +2313,16 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2376,7 +2372,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2385,10 +2381,10 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>40</v>
@@ -2405,10 +2401,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
@@ -2430,16 +2426,16 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2489,7 +2485,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2498,10 +2494,10 @@
         <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>40</v>
@@ -2510,7 +2506,7 @@
         <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2518,16 +2514,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>50</v>
@@ -2545,13 +2541,13 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2602,7 +2598,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2614,7 +2610,7 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>40</v>
@@ -2631,16 +2627,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>50</v>
@@ -2658,13 +2654,13 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2715,7 +2711,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2727,7 +2723,7 @@
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>40</v>
@@ -2744,16 +2740,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>41</v>
@@ -2771,13 +2767,13 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2828,7 +2824,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2840,7 +2836,7 @@
         <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>40</v>
@@ -2857,11 +2853,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2880,19 +2876,19 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2941,7 +2937,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2953,7 +2949,7 @@
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>40</v>
@@ -2962,7 +2958,7 @@
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2970,7 +2966,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2993,19 +2989,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3054,7 +3050,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3066,24 +3062,24 @@
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3106,13 +3102,13 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3163,7 +3159,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3175,16 +3171,16 @@
         <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3192,7 +3188,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3215,16 +3211,16 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3274,7 +3270,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3286,16 +3282,16 @@
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3303,7 +3299,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3326,16 +3322,16 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3361,13 +3357,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3385,7 +3381,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>50</v>
@@ -3397,10 +3393,10 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -3409,12 +3405,12 @@
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3437,17 +3433,17 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3472,13 +3468,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3496,7 +3492,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3508,7 +3504,7 @@
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
@@ -3517,7 +3513,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3525,11 +3521,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3548,13 +3544,13 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3605,7 +3601,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>50</v>
@@ -3617,24 +3613,24 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3657,19 +3653,19 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3718,7 +3714,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3730,7 +3726,7 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>40</v>
@@ -3739,15 +3735,15 @@
         <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3770,7 +3766,7 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>194</v>
@@ -3829,7 +3825,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3841,7 +3837,7 @@
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
@@ -3883,7 +3879,7 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>200</v>
@@ -3916,7 +3912,7 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>202</v>
@@ -3952,7 +3948,7 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>40</v>
@@ -3994,7 +3990,7 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>207</v>
@@ -4067,7 +4063,7 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>40</v>
@@ -4180,7 +4176,7 @@
         <v>220</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>40</v>
@@ -4295,7 +4291,7 @@
         <v>220</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
@@ -4410,7 +4406,7 @@
         <v>237</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
@@ -4521,7 +4517,7 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
@@ -4561,7 +4557,7 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>245</v>
@@ -4596,7 +4592,7 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X31" t="s" s="2">
         <v>248</v>
@@ -4632,7 +4628,7 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>250</v>
@@ -4641,7 +4637,7 @@
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>251</v>
@@ -4741,7 +4737,7 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>255</v>
@@ -4850,7 +4846,7 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>261</v>
@@ -4961,16 +4957,16 @@
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -4978,7 +4974,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5001,13 +4997,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5058,7 +5054,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5079,7 +5075,7 @@
         <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5087,11 +5083,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5110,16 +5106,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5169,7 +5165,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5181,7 +5177,7 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
@@ -5190,7 +5186,7 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5198,11 +5194,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5221,19 +5217,19 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5282,7 +5278,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5294,7 +5290,7 @@
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
@@ -5303,7 +5299,7 @@
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5311,7 +5307,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5334,13 +5330,13 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5367,14 +5363,14 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>288</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5391,7 +5387,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>50</v>
@@ -5403,7 +5399,7 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
@@ -5412,7 +5408,7 @@
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5420,7 +5416,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5443,13 +5439,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5476,14 +5472,14 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5500,7 +5496,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5512,7 +5508,7 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>40</v>
@@ -5521,7 +5517,7 @@
         <v>40</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5529,7 +5525,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5555,10 +5551,10 @@
         <v>231</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5609,7 +5605,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5621,7 +5617,7 @@
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
@@ -5638,7 +5634,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5661,17 +5657,17 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5720,7 +5716,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5732,7 +5728,7 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
@@ -5741,7 +5737,7 @@
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5749,7 +5745,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5775,10 +5771,10 @@
         <v>258</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5829,7 +5825,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5841,7 +5837,7 @@
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
